--- a/usaspending_api/data/naics_archive/2002naics.xlsx
+++ b/usaspending_api/data/naics_archive/2002naics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinle/Developer/data-act/usaspending-api/usaspending_api/data/naics_archive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinle/Developer/usaspending-api/usaspending_api/data/naics_archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2C1877-3165-1749-B379-2324FAF7C563}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3182D55D-5E91-9449-B219-4D09F32A646A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="3060" windowWidth="26840" windowHeight="15940" xr2:uid="{E4487FB4-2F8C-9547-B526-6BBB405C8E27}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="1182">
   <si>
     <t>2002 NAICS Code</t>
   </si>
@@ -3922,10 +3922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E96A52-4BA3-F64E-95E0-80D3A119C9C2}">
-  <dimension ref="A1:C2359"/>
+  <dimension ref="A1:C1180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A1000" workbookViewId="0">
+      <selection activeCell="B1022" sqref="B1022"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13376,4721 +13376,6 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1183">
-        <v>339912</v>
-      </c>
-      <c r="B1183" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1185">
-        <v>339913</v>
-      </c>
-      <c r="B1185" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1187">
-        <v>339914</v>
-      </c>
-      <c r="B1187" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1189">
-        <v>339920</v>
-      </c>
-      <c r="B1189" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1191">
-        <v>339931</v>
-      </c>
-      <c r="B1191" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1193">
-        <v>339932</v>
-      </c>
-      <c r="B1193" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1195">
-        <v>339941</v>
-      </c>
-      <c r="B1195" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1197">
-        <v>339942</v>
-      </c>
-      <c r="B1197" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1199">
-        <v>339943</v>
-      </c>
-      <c r="B1199" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1201">
-        <v>339944</v>
-      </c>
-      <c r="B1201" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1203">
-        <v>339950</v>
-      </c>
-      <c r="B1203" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1205">
-        <v>339991</v>
-      </c>
-      <c r="B1205" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1207">
-        <v>339992</v>
-      </c>
-      <c r="B1207" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1209">
-        <v>339993</v>
-      </c>
-      <c r="B1209" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1211">
-        <v>339994</v>
-      </c>
-      <c r="B1211" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1213">
-        <v>339995</v>
-      </c>
-      <c r="B1213" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1215">
-        <v>339999</v>
-      </c>
-      <c r="B1215" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1217">
-        <v>423110</v>
-      </c>
-      <c r="B1217" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1219">
-        <v>423120</v>
-      </c>
-      <c r="B1219" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1221">
-        <v>423130</v>
-      </c>
-      <c r="B1221" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1223">
-        <v>423140</v>
-      </c>
-      <c r="B1223" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1225">
-        <v>423210</v>
-      </c>
-      <c r="B1225" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1227">
-        <v>423220</v>
-      </c>
-      <c r="B1227" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1229">
-        <v>423310</v>
-      </c>
-      <c r="B1229" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1231">
-        <v>423320</v>
-      </c>
-      <c r="B1231" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1233">
-        <v>423330</v>
-      </c>
-      <c r="B1233" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1235">
-        <v>423390</v>
-      </c>
-      <c r="B1235" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1237">
-        <v>423410</v>
-      </c>
-      <c r="B1237" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1239">
-        <v>423420</v>
-      </c>
-      <c r="B1239" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1241">
-        <v>423430</v>
-      </c>
-      <c r="B1241" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1243">
-        <v>423440</v>
-      </c>
-      <c r="B1243" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1245">
-        <v>423450</v>
-      </c>
-      <c r="B1245" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1247">
-        <v>423460</v>
-      </c>
-      <c r="B1247" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1249">
-        <v>423490</v>
-      </c>
-      <c r="B1249" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1251">
-        <v>423510</v>
-      </c>
-      <c r="B1251" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1253">
-        <v>423520</v>
-      </c>
-      <c r="B1253" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1255">
-        <v>423610</v>
-      </c>
-      <c r="B1255" t="s">
-        <v>628</v>
-      </c>
-      <c r="C1255" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1257">
-        <v>423620</v>
-      </c>
-      <c r="B1257" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1259">
-        <v>423690</v>
-      </c>
-      <c r="B1259" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1261">
-        <v>423710</v>
-      </c>
-      <c r="B1261" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1263">
-        <v>423720</v>
-      </c>
-      <c r="B1263" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1265">
-        <v>423730</v>
-      </c>
-      <c r="B1265" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1267">
-        <v>423740</v>
-      </c>
-      <c r="B1267" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1269">
-        <v>423810</v>
-      </c>
-      <c r="B1269" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1271">
-        <v>423820</v>
-      </c>
-      <c r="B1271" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1273">
-        <v>423830</v>
-      </c>
-      <c r="B1273" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1275">
-        <v>423840</v>
-      </c>
-      <c r="B1275" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1277">
-        <v>423850</v>
-      </c>
-      <c r="B1277" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1279">
-        <v>423860</v>
-      </c>
-      <c r="B1279" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1281">
-        <v>423910</v>
-      </c>
-      <c r="B1281" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1283">
-        <v>423920</v>
-      </c>
-      <c r="B1283" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1285">
-        <v>423930</v>
-      </c>
-      <c r="B1285" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1287">
-        <v>423940</v>
-      </c>
-      <c r="B1287" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1289">
-        <v>423990</v>
-      </c>
-      <c r="B1289" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1291">
-        <v>424110</v>
-      </c>
-      <c r="B1291" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1293">
-        <v>424120</v>
-      </c>
-      <c r="B1293" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1295">
-        <v>424130</v>
-      </c>
-      <c r="B1295" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1297">
-        <v>424210</v>
-      </c>
-      <c r="B1297" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1299">
-        <v>424310</v>
-      </c>
-      <c r="B1299" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1301">
-        <v>424320</v>
-      </c>
-      <c r="B1301" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1303">
-        <v>424330</v>
-      </c>
-      <c r="B1303" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1305">
-        <v>424340</v>
-      </c>
-      <c r="B1305" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1307">
-        <v>424410</v>
-      </c>
-      <c r="B1307" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1309">
-        <v>424420</v>
-      </c>
-      <c r="B1309" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1311">
-        <v>424430</v>
-      </c>
-      <c r="B1311" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1313">
-        <v>424440</v>
-      </c>
-      <c r="B1313" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1315">
-        <v>424450</v>
-      </c>
-      <c r="B1315" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1317">
-        <v>424460</v>
-      </c>
-      <c r="B1317" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1319">
-        <v>424470</v>
-      </c>
-      <c r="B1319" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1321">
-        <v>424480</v>
-      </c>
-      <c r="B1321" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1323">
-        <v>424490</v>
-      </c>
-      <c r="B1323" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1325">
-        <v>424510</v>
-      </c>
-      <c r="B1325" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1327">
-        <v>424520</v>
-      </c>
-      <c r="B1327" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1329">
-        <v>424590</v>
-      </c>
-      <c r="B1329" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1331">
-        <v>424610</v>
-      </c>
-      <c r="B1331" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1333">
-        <v>424690</v>
-      </c>
-      <c r="B1333" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1335">
-        <v>424710</v>
-      </c>
-      <c r="B1335" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1337">
-        <v>424720</v>
-      </c>
-      <c r="B1337" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1339">
-        <v>424810</v>
-      </c>
-      <c r="B1339" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1341">
-        <v>424820</v>
-      </c>
-      <c r="B1341" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1343">
-        <v>424910</v>
-      </c>
-      <c r="B1343" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1345">
-        <v>424920</v>
-      </c>
-      <c r="B1345" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1347">
-        <v>424930</v>
-      </c>
-      <c r="B1347" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1349">
-        <v>424940</v>
-      </c>
-      <c r="B1349" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1351">
-        <v>424950</v>
-      </c>
-      <c r="B1351" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1353">
-        <v>424990</v>
-      </c>
-      <c r="B1353" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1355">
-        <v>425110</v>
-      </c>
-      <c r="B1355" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1357">
-        <v>425120</v>
-      </c>
-      <c r="B1357" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1359">
-        <v>441110</v>
-      </c>
-      <c r="B1359" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1361">
-        <v>441120</v>
-      </c>
-      <c r="B1361" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1363">
-        <v>441210</v>
-      </c>
-      <c r="B1363" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1365">
-        <v>441221</v>
-      </c>
-      <c r="B1365" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1367">
-        <v>441222</v>
-      </c>
-      <c r="B1367" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1369">
-        <v>441229</v>
-      </c>
-      <c r="B1369" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1371">
-        <v>441310</v>
-      </c>
-      <c r="B1371" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1373">
-        <v>441320</v>
-      </c>
-      <c r="B1373" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1375">
-        <v>442110</v>
-      </c>
-      <c r="B1375" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1377">
-        <v>442210</v>
-      </c>
-      <c r="B1377" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1379">
-        <v>442291</v>
-      </c>
-      <c r="B1379" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1381">
-        <v>442299</v>
-      </c>
-      <c r="B1381" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1383">
-        <v>443111</v>
-      </c>
-      <c r="B1383" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1385">
-        <v>443112</v>
-      </c>
-      <c r="B1385" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1387">
-        <v>443120</v>
-      </c>
-      <c r="B1387" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1389">
-        <v>443130</v>
-      </c>
-      <c r="B1389" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1391">
-        <v>444110</v>
-      </c>
-      <c r="B1391" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1393">
-        <v>444120</v>
-      </c>
-      <c r="B1393" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1395">
-        <v>444130</v>
-      </c>
-      <c r="B1395" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1397">
-        <v>444190</v>
-      </c>
-      <c r="B1397" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1399">
-        <v>444210</v>
-      </c>
-      <c r="B1399" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1401">
-        <v>444220</v>
-      </c>
-      <c r="B1401" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1403">
-        <v>445110</v>
-      </c>
-      <c r="B1403" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1405">
-        <v>445120</v>
-      </c>
-      <c r="B1405" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1407">
-        <v>445210</v>
-      </c>
-      <c r="B1407" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1409">
-        <v>445220</v>
-      </c>
-      <c r="B1409" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1411">
-        <v>445230</v>
-      </c>
-      <c r="B1411" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1413">
-        <v>445291</v>
-      </c>
-      <c r="B1413" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1415">
-        <v>445292</v>
-      </c>
-      <c r="B1415" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1417">
-        <v>445299</v>
-      </c>
-      <c r="B1417" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1419">
-        <v>445310</v>
-      </c>
-      <c r="B1419" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1421">
-        <v>446110</v>
-      </c>
-      <c r="B1421" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1423">
-        <v>446120</v>
-      </c>
-      <c r="B1423" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1425">
-        <v>446130</v>
-      </c>
-      <c r="B1425" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1427">
-        <v>446191</v>
-      </c>
-      <c r="B1427" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1429">
-        <v>446199</v>
-      </c>
-      <c r="B1429" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1431">
-        <v>447110</v>
-      </c>
-      <c r="B1431" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1433">
-        <v>447190</v>
-      </c>
-      <c r="B1433" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1435">
-        <v>448110</v>
-      </c>
-      <c r="B1435" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1437">
-        <v>448120</v>
-      </c>
-      <c r="B1437" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1439">
-        <v>448130</v>
-      </c>
-      <c r="B1439" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1441">
-        <v>448140</v>
-      </c>
-      <c r="B1441" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1443">
-        <v>448150</v>
-      </c>
-      <c r="B1443" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1445">
-        <v>448190</v>
-      </c>
-      <c r="B1445" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1447">
-        <v>448210</v>
-      </c>
-      <c r="B1447" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1449">
-        <v>448310</v>
-      </c>
-      <c r="B1449" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1451">
-        <v>448320</v>
-      </c>
-      <c r="B1451" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1453">
-        <v>451110</v>
-      </c>
-      <c r="B1453" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1455">
-        <v>451120</v>
-      </c>
-      <c r="B1455" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1457">
-        <v>451130</v>
-      </c>
-      <c r="B1457" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1459">
-        <v>451140</v>
-      </c>
-      <c r="B1459" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1461">
-        <v>451211</v>
-      </c>
-      <c r="B1461" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1463">
-        <v>451212</v>
-      </c>
-      <c r="B1463" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1465">
-        <v>451220</v>
-      </c>
-      <c r="B1465" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1467">
-        <v>452111</v>
-      </c>
-      <c r="B1467" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1469">
-        <v>452112</v>
-      </c>
-      <c r="B1469" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1471">
-        <v>452910</v>
-      </c>
-      <c r="B1471" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1473">
-        <v>452990</v>
-      </c>
-      <c r="B1473" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1475">
-        <v>453110</v>
-      </c>
-      <c r="B1475" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1477">
-        <v>453210</v>
-      </c>
-      <c r="B1477" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1479">
-        <v>453220</v>
-      </c>
-      <c r="B1479" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1481">
-        <v>453310</v>
-      </c>
-      <c r="B1481" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1483">
-        <v>453910</v>
-      </c>
-      <c r="B1483" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1485">
-        <v>453920</v>
-      </c>
-      <c r="B1485" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1487">
-        <v>453930</v>
-      </c>
-      <c r="B1487" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1489">
-        <v>453991</v>
-      </c>
-      <c r="B1489" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1491">
-        <v>453998</v>
-      </c>
-      <c r="B1491" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1493">
-        <v>454111</v>
-      </c>
-      <c r="B1493" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1495">
-        <v>454112</v>
-      </c>
-      <c r="B1495" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1497">
-        <v>454113</v>
-      </c>
-      <c r="B1497" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1499">
-        <v>454210</v>
-      </c>
-      <c r="B1499" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1501">
-        <v>454311</v>
-      </c>
-      <c r="B1501" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1503">
-        <v>454312</v>
-      </c>
-      <c r="B1503" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1505">
-        <v>454319</v>
-      </c>
-      <c r="B1505" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1507">
-        <v>454390</v>
-      </c>
-      <c r="B1507" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1509">
-        <v>481111</v>
-      </c>
-      <c r="B1509" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1511">
-        <v>481112</v>
-      </c>
-      <c r="B1511" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1513">
-        <v>481211</v>
-      </c>
-      <c r="B1513" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1515">
-        <v>481212</v>
-      </c>
-      <c r="B1515" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1517">
-        <v>481219</v>
-      </c>
-      <c r="B1517" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1519">
-        <v>482111</v>
-      </c>
-      <c r="B1519" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1521">
-        <v>482112</v>
-      </c>
-      <c r="B1521" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1523">
-        <v>483111</v>
-      </c>
-      <c r="B1523" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1525">
-        <v>483112</v>
-      </c>
-      <c r="B1525" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1527">
-        <v>483113</v>
-      </c>
-      <c r="B1527" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1529">
-        <v>483114</v>
-      </c>
-      <c r="B1529" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1531">
-        <v>483211</v>
-      </c>
-      <c r="B1531" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1533">
-        <v>483212</v>
-      </c>
-      <c r="B1533" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1535">
-        <v>484110</v>
-      </c>
-      <c r="B1535" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1537">
-        <v>484121</v>
-      </c>
-      <c r="B1537" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1539">
-        <v>484122</v>
-      </c>
-      <c r="B1539" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1541">
-        <v>484210</v>
-      </c>
-      <c r="B1541" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1543">
-        <v>484220</v>
-      </c>
-      <c r="B1543" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1545">
-        <v>484230</v>
-      </c>
-      <c r="B1545" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1547">
-        <v>485111</v>
-      </c>
-      <c r="B1547" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1549">
-        <v>485112</v>
-      </c>
-      <c r="B1549" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1551">
-        <v>485113</v>
-      </c>
-      <c r="B1551" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1553">
-        <v>485119</v>
-      </c>
-      <c r="B1553" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1555">
-        <v>485210</v>
-      </c>
-      <c r="B1555" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1557">
-        <v>485310</v>
-      </c>
-      <c r="B1557" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1559">
-        <v>485320</v>
-      </c>
-      <c r="B1559" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1561">
-        <v>485410</v>
-      </c>
-      <c r="B1561" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1563">
-        <v>485510</v>
-      </c>
-      <c r="B1563" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1565">
-        <v>485991</v>
-      </c>
-      <c r="B1565" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1567">
-        <v>485999</v>
-      </c>
-      <c r="B1567" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1569">
-        <v>486110</v>
-      </c>
-      <c r="B1569" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1571">
-        <v>486210</v>
-      </c>
-      <c r="B1571" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1573">
-        <v>486910</v>
-      </c>
-      <c r="B1573" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1575">
-        <v>486990</v>
-      </c>
-      <c r="B1575" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1577">
-        <v>487110</v>
-      </c>
-      <c r="B1577" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1579">
-        <v>487210</v>
-      </c>
-      <c r="B1579" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1581">
-        <v>487990</v>
-      </c>
-      <c r="B1581" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1583">
-        <v>488111</v>
-      </c>
-      <c r="B1583" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1585">
-        <v>488119</v>
-      </c>
-      <c r="B1585" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1587">
-        <v>488190</v>
-      </c>
-      <c r="B1587" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1589">
-        <v>488210</v>
-      </c>
-      <c r="B1589" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1591">
-        <v>488310</v>
-      </c>
-      <c r="B1591" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1593">
-        <v>488320</v>
-      </c>
-      <c r="B1593" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="1595" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1595">
-        <v>488330</v>
-      </c>
-      <c r="B1595" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1597">
-        <v>488390</v>
-      </c>
-      <c r="B1597" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1599">
-        <v>488410</v>
-      </c>
-      <c r="B1599" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="1601" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1601">
-        <v>488490</v>
-      </c>
-      <c r="B1601" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1603">
-        <v>488510</v>
-      </c>
-      <c r="B1603" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1605">
-        <v>488991</v>
-      </c>
-      <c r="B1605" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="1607" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1607">
-        <v>488999</v>
-      </c>
-      <c r="B1607" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="1609" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1609">
-        <v>491110</v>
-      </c>
-      <c r="B1609" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1611">
-        <v>492110</v>
-      </c>
-      <c r="B1611" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1613">
-        <v>492210</v>
-      </c>
-      <c r="B1613" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1615">
-        <v>493110</v>
-      </c>
-      <c r="B1615" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="1617" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1617">
-        <v>493120</v>
-      </c>
-      <c r="B1617" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1619">
-        <v>493130</v>
-      </c>
-      <c r="B1619" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="1621" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1621">
-        <v>493190</v>
-      </c>
-      <c r="B1621" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="1623" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1623">
-        <v>511110</v>
-      </c>
-      <c r="B1623" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1625">
-        <v>511120</v>
-      </c>
-      <c r="B1625" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1627">
-        <v>511130</v>
-      </c>
-      <c r="B1627" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="1629" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1629">
-        <v>511140</v>
-      </c>
-      <c r="B1629" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1631">
-        <v>511191</v>
-      </c>
-      <c r="B1631" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1633">
-        <v>511199</v>
-      </c>
-      <c r="B1633" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="1635" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1635">
-        <v>511210</v>
-      </c>
-      <c r="B1635" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="1637" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1637">
-        <v>512110</v>
-      </c>
-      <c r="B1637" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1639">
-        <v>512120</v>
-      </c>
-      <c r="B1639" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1641">
-        <v>512131</v>
-      </c>
-      <c r="B1641" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1643">
-        <v>512132</v>
-      </c>
-      <c r="B1643" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1645">
-        <v>512191</v>
-      </c>
-      <c r="B1645" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="1647" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1647">
-        <v>512199</v>
-      </c>
-      <c r="B1647" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="1649" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1649">
-        <v>512210</v>
-      </c>
-      <c r="B1649" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1651">
-        <v>512220</v>
-      </c>
-      <c r="B1651" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1653">
-        <v>512230</v>
-      </c>
-      <c r="B1653" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1655">
-        <v>512240</v>
-      </c>
-      <c r="B1655" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1657">
-        <v>512290</v>
-      </c>
-      <c r="B1657" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="1659" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1659">
-        <v>515111</v>
-      </c>
-      <c r="B1659" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1661">
-        <v>515112</v>
-      </c>
-      <c r="B1661" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1663">
-        <v>515120</v>
-      </c>
-      <c r="B1663" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="1665" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1665">
-        <v>515210</v>
-      </c>
-      <c r="B1665" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="1667" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1667">
-        <v>516110</v>
-      </c>
-      <c r="B1667" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1669">
-        <v>517110</v>
-      </c>
-      <c r="B1669" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1671">
-        <v>517211</v>
-      </c>
-      <c r="B1671" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="1673" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1673">
-        <v>517212</v>
-      </c>
-      <c r="B1673" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1675">
-        <v>517310</v>
-      </c>
-      <c r="B1675" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1677">
-        <v>517410</v>
-      </c>
-      <c r="B1677" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1679">
-        <v>517510</v>
-      </c>
-      <c r="B1679" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1681">
-        <v>517910</v>
-      </c>
-      <c r="B1681" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1683">
-        <v>518111</v>
-      </c>
-      <c r="B1683" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1685">
-        <v>518112</v>
-      </c>
-      <c r="B1685" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1687">
-        <v>518210</v>
-      </c>
-      <c r="B1687" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1689">
-        <v>519110</v>
-      </c>
-      <c r="B1689" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1691">
-        <v>519120</v>
-      </c>
-      <c r="B1691" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1693">
-        <v>519190</v>
-      </c>
-      <c r="B1693" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1695">
-        <v>521110</v>
-      </c>
-      <c r="B1695" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1697">
-        <v>522110</v>
-      </c>
-      <c r="B1697" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1699">
-        <v>522120</v>
-      </c>
-      <c r="B1699" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1701">
-        <v>522130</v>
-      </c>
-      <c r="B1701" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="1703" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1703">
-        <v>522190</v>
-      </c>
-      <c r="B1703" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="1705" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1705">
-        <v>522210</v>
-      </c>
-      <c r="B1705" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1707">
-        <v>522220</v>
-      </c>
-      <c r="B1707" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1709">
-        <v>522291</v>
-      </c>
-      <c r="B1709" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="1711" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1711">
-        <v>522292</v>
-      </c>
-      <c r="B1711" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1713">
-        <v>522293</v>
-      </c>
-      <c r="B1713" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1715">
-        <v>522294</v>
-      </c>
-      <c r="B1715" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1717">
-        <v>522298</v>
-      </c>
-      <c r="B1717" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1719">
-        <v>522310</v>
-      </c>
-      <c r="B1719" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="1721" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1721">
-        <v>522320</v>
-      </c>
-      <c r="B1721" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1723">
-        <v>522390</v>
-      </c>
-      <c r="B1723" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="1725" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1725">
-        <v>523110</v>
-      </c>
-      <c r="B1725" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1727">
-        <v>523120</v>
-      </c>
-      <c r="B1727" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="1729" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1729">
-        <v>523130</v>
-      </c>
-      <c r="B1729" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="1731" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1731">
-        <v>523140</v>
-      </c>
-      <c r="B1731" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1733">
-        <v>523210</v>
-      </c>
-      <c r="B1733" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1735">
-        <v>523910</v>
-      </c>
-      <c r="B1735" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1737">
-        <v>523920</v>
-      </c>
-      <c r="B1737" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="1739" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1739">
-        <v>523930</v>
-      </c>
-      <c r="B1739" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1741">
-        <v>523991</v>
-      </c>
-      <c r="B1741" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="1743" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1743">
-        <v>523999</v>
-      </c>
-      <c r="B1743" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1745">
-        <v>524113</v>
-      </c>
-      <c r="B1745" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1747">
-        <v>524114</v>
-      </c>
-      <c r="B1747" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1749">
-        <v>524126</v>
-      </c>
-      <c r="B1749" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1751">
-        <v>524127</v>
-      </c>
-      <c r="B1751" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1753">
-        <v>524128</v>
-      </c>
-      <c r="B1753" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="1755" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1755">
-        <v>524130</v>
-      </c>
-      <c r="B1755" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1757">
-        <v>524210</v>
-      </c>
-      <c r="B1757" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="1759" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1759">
-        <v>524291</v>
-      </c>
-      <c r="B1759" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="1761" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1761">
-        <v>524292</v>
-      </c>
-      <c r="B1761" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="1763" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1763">
-        <v>524298</v>
-      </c>
-      <c r="B1763" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="1765" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1765">
-        <v>525110</v>
-      </c>
-      <c r="B1765" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="1767" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1767">
-        <v>525120</v>
-      </c>
-      <c r="B1767" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="1769" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1769">
-        <v>525190</v>
-      </c>
-      <c r="B1769" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="1771" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1771">
-        <v>525910</v>
-      </c>
-      <c r="B1771" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="1773" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1773">
-        <v>525920</v>
-      </c>
-      <c r="B1773" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="1775" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1775">
-        <v>525930</v>
-      </c>
-      <c r="B1775" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="1777" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1777">
-        <v>525990</v>
-      </c>
-      <c r="B1777" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1779">
-        <v>531110</v>
-      </c>
-      <c r="B1779" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="1781" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1781">
-        <v>531120</v>
-      </c>
-      <c r="B1781" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1783">
-        <v>531130</v>
-      </c>
-      <c r="B1783" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1785">
-        <v>531190</v>
-      </c>
-      <c r="B1785" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="1787" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1787">
-        <v>531210</v>
-      </c>
-      <c r="B1787" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1789">
-        <v>531311</v>
-      </c>
-      <c r="B1789" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="1791" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1791">
-        <v>531312</v>
-      </c>
-      <c r="B1791" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1793">
-        <v>531320</v>
-      </c>
-      <c r="B1793" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="1795" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1795">
-        <v>531390</v>
-      </c>
-      <c r="B1795" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="1797" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1797">
-        <v>532111</v>
-      </c>
-      <c r="B1797" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="1799" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1799">
-        <v>532112</v>
-      </c>
-      <c r="B1799" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="1801" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1801">
-        <v>532120</v>
-      </c>
-      <c r="B1801" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1803">
-        <v>532210</v>
-      </c>
-      <c r="B1803" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1805">
-        <v>532220</v>
-      </c>
-      <c r="B1805" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="1807" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1807">
-        <v>532230</v>
-      </c>
-      <c r="B1807" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="1809" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1809">
-        <v>532291</v>
-      </c>
-      <c r="B1809" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="1811" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1811">
-        <v>532292</v>
-      </c>
-      <c r="B1811" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="1813" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1813">
-        <v>532299</v>
-      </c>
-      <c r="B1813" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="1815" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1815">
-        <v>532310</v>
-      </c>
-      <c r="B1815" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="1817" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1817">
-        <v>532411</v>
-      </c>
-      <c r="B1817" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="1819" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1819">
-        <v>532412</v>
-      </c>
-      <c r="B1819" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1821">
-        <v>532420</v>
-      </c>
-      <c r="B1821" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1823">
-        <v>532490</v>
-      </c>
-      <c r="B1823" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1825">
-        <v>533110</v>
-      </c>
-      <c r="B1825" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="1827" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1827">
-        <v>541110</v>
-      </c>
-      <c r="B1827" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="1829" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1829">
-        <v>541120</v>
-      </c>
-      <c r="B1829" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1831">
-        <v>541191</v>
-      </c>
-      <c r="B1831" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="1833" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1833">
-        <v>541199</v>
-      </c>
-      <c r="B1833" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="1835" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1835">
-        <v>541211</v>
-      </c>
-      <c r="B1835" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1837">
-        <v>541213</v>
-      </c>
-      <c r="B1837" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1839">
-        <v>541214</v>
-      </c>
-      <c r="B1839" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="1841" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1841">
-        <v>541219</v>
-      </c>
-      <c r="B1841" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="1843" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1843">
-        <v>541310</v>
-      </c>
-      <c r="B1843" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="1845" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1845">
-        <v>541320</v>
-      </c>
-      <c r="B1845" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1847">
-        <v>541330</v>
-      </c>
-      <c r="B1847" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="1849" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1849">
-        <v>541340</v>
-      </c>
-      <c r="B1849" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="1851" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1851">
-        <v>541350</v>
-      </c>
-      <c r="B1851" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="1853" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1853">
-        <v>541360</v>
-      </c>
-      <c r="B1853" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="1855" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1855">
-        <v>541370</v>
-      </c>
-      <c r="B1855" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="1857" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1857">
-        <v>541380</v>
-      </c>
-      <c r="B1857" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="1859" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1859">
-        <v>541410</v>
-      </c>
-      <c r="B1859" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="1861" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1861">
-        <v>541420</v>
-      </c>
-      <c r="B1861" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="1863" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1863">
-        <v>541430</v>
-      </c>
-      <c r="B1863" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="1865" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1865">
-        <v>541490</v>
-      </c>
-      <c r="B1865" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="1867" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1867">
-        <v>541511</v>
-      </c>
-      <c r="B1867" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="1869" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1869">
-        <v>541512</v>
-      </c>
-      <c r="B1869" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="1871" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1871">
-        <v>541513</v>
-      </c>
-      <c r="B1871" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="1873" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1873">
-        <v>541519</v>
-      </c>
-      <c r="B1873" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="1875" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1875">
-        <v>541611</v>
-      </c>
-      <c r="B1875" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="1877" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1877">
-        <v>541612</v>
-      </c>
-      <c r="B1877" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="1879" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1879">
-        <v>541613</v>
-      </c>
-      <c r="B1879" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="1881" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1881">
-        <v>541614</v>
-      </c>
-      <c r="B1881" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1883">
-        <v>541618</v>
-      </c>
-      <c r="B1883" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="1885" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1885">
-        <v>541620</v>
-      </c>
-      <c r="B1885" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1887">
-        <v>541690</v>
-      </c>
-      <c r="B1887" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="1889" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1889">
-        <v>541710</v>
-      </c>
-      <c r="B1889" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1891">
-        <v>541720</v>
-      </c>
-      <c r="B1891" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="1893" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1893">
-        <v>541810</v>
-      </c>
-      <c r="B1893" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="1895" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1895">
-        <v>541820</v>
-      </c>
-      <c r="B1895" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="1897" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1897">
-        <v>541830</v>
-      </c>
-      <c r="B1897" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="1899" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1899">
-        <v>541840</v>
-      </c>
-      <c r="B1899" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="1901" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1901">
-        <v>541850</v>
-      </c>
-      <c r="B1901" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="1903" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1903">
-        <v>541860</v>
-      </c>
-      <c r="B1903" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="1905" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1905">
-        <v>541870</v>
-      </c>
-      <c r="B1905" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="1907" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1907">
-        <v>541890</v>
-      </c>
-      <c r="B1907" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1909">
-        <v>541910</v>
-      </c>
-      <c r="B1909" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="1911" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1911">
-        <v>541921</v>
-      </c>
-      <c r="B1911" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="1913" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1913">
-        <v>541922</v>
-      </c>
-      <c r="B1913" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1915">
-        <v>541930</v>
-      </c>
-      <c r="B1915" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="1917" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1917">
-        <v>541940</v>
-      </c>
-      <c r="B1917" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="1919" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1919">
-        <v>541990</v>
-      </c>
-      <c r="B1919" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="1921" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1921">
-        <v>551111</v>
-      </c>
-      <c r="B1921" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1923">
-        <v>551112</v>
-      </c>
-      <c r="B1923" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1925">
-        <v>551114</v>
-      </c>
-      <c r="B1925" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="1927" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1927">
-        <v>561110</v>
-      </c>
-      <c r="B1927" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="1929" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1929">
-        <v>561210</v>
-      </c>
-      <c r="B1929" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="1931" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1931">
-        <v>561310</v>
-      </c>
-      <c r="B1931" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="1933" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1933">
-        <v>561320</v>
-      </c>
-      <c r="B1933" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="1935" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1935">
-        <v>561330</v>
-      </c>
-      <c r="B1935" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="1937" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1937">
-        <v>561410</v>
-      </c>
-      <c r="B1937" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="1939" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1939">
-        <v>561421</v>
-      </c>
-      <c r="B1939" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="1941" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1941">
-        <v>561422</v>
-      </c>
-      <c r="B1941" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="1943" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1943">
-        <v>561431</v>
-      </c>
-      <c r="B1943" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="1945" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1945">
-        <v>561439</v>
-      </c>
-      <c r="B1945" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="1947" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1947">
-        <v>561440</v>
-      </c>
-      <c r="B1947" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="1949" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1949">
-        <v>561450</v>
-      </c>
-      <c r="B1949" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="1951" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1951">
-        <v>561491</v>
-      </c>
-      <c r="B1951" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="1953" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1953">
-        <v>561492</v>
-      </c>
-      <c r="B1953" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="1955" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1955">
-        <v>561499</v>
-      </c>
-      <c r="B1955" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="1957" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1957">
-        <v>561510</v>
-      </c>
-      <c r="B1957" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1959" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1959">
-        <v>561520</v>
-      </c>
-      <c r="B1959" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="1961" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1961">
-        <v>561591</v>
-      </c>
-      <c r="B1961" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="1963" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1963">
-        <v>561599</v>
-      </c>
-      <c r="B1963" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="1965" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1965">
-        <v>561611</v>
-      </c>
-      <c r="B1965" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="1967" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1967">
-        <v>561612</v>
-      </c>
-      <c r="B1967" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="1969" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1969">
-        <v>561613</v>
-      </c>
-      <c r="B1969" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="1971" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1971">
-        <v>561621</v>
-      </c>
-      <c r="B1971" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="1973" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1973">
-        <v>561622</v>
-      </c>
-      <c r="B1973" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="1975" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1975">
-        <v>561710</v>
-      </c>
-      <c r="B1975" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="1977" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1977">
-        <v>561720</v>
-      </c>
-      <c r="B1977" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="1979" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1979">
-        <v>561730</v>
-      </c>
-      <c r="B1979" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="1981" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1981">
-        <v>561740</v>
-      </c>
-      <c r="B1981" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="1983" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1983">
-        <v>561790</v>
-      </c>
-      <c r="B1983" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="1985" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1985">
-        <v>561910</v>
-      </c>
-      <c r="B1985" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="1987" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1987">
-        <v>561920</v>
-      </c>
-      <c r="B1987" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="1989" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1989">
-        <v>561990</v>
-      </c>
-      <c r="B1989" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="1991" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1991">
-        <v>562111</v>
-      </c>
-      <c r="B1991" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="1993" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1993">
-        <v>562112</v>
-      </c>
-      <c r="B1993" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1995" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1995">
-        <v>562119</v>
-      </c>
-      <c r="B1995" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="1997" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1997">
-        <v>562211</v>
-      </c>
-      <c r="B1997" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="1999" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1999">
-        <v>562212</v>
-      </c>
-      <c r="B1999" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="2001" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2001">
-        <v>562213</v>
-      </c>
-      <c r="B2001" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="2003" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2003">
-        <v>562219</v>
-      </c>
-      <c r="B2003" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="2005" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2005">
-        <v>562910</v>
-      </c>
-      <c r="B2005" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="2007" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2007">
-        <v>562920</v>
-      </c>
-      <c r="B2007" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="2009" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2009">
-        <v>562991</v>
-      </c>
-      <c r="B2009" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="2011" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2011">
-        <v>562998</v>
-      </c>
-      <c r="B2011" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="2013" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2013">
-        <v>611110</v>
-      </c>
-      <c r="B2013" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="2015" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2015">
-        <v>611210</v>
-      </c>
-      <c r="B2015" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="2017" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2017">
-        <v>611310</v>
-      </c>
-      <c r="B2017" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="2019" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2019">
-        <v>611410</v>
-      </c>
-      <c r="B2019" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="2021" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2021">
-        <v>611420</v>
-      </c>
-      <c r="B2021" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="2023" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2023">
-        <v>611430</v>
-      </c>
-      <c r="B2023" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="2025" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2025">
-        <v>611511</v>
-      </c>
-      <c r="B2025" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="2027" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2027">
-        <v>611512</v>
-      </c>
-      <c r="B2027" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="2029" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2029">
-        <v>611513</v>
-      </c>
-      <c r="B2029" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="2031" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2031">
-        <v>611519</v>
-      </c>
-      <c r="B2031" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="2033" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2033">
-        <v>611610</v>
-      </c>
-      <c r="B2033" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="2035" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2035">
-        <v>611620</v>
-      </c>
-      <c r="B2035" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="2037" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2037">
-        <v>611630</v>
-      </c>
-      <c r="B2037" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="2039" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2039">
-        <v>611691</v>
-      </c>
-      <c r="B2039" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="2041" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2041">
-        <v>611692</v>
-      </c>
-      <c r="B2041" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="2043" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2043">
-        <v>611699</v>
-      </c>
-      <c r="B2043" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="2045" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2045">
-        <v>611710</v>
-      </c>
-      <c r="B2045" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="2047" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2047">
-        <v>621111</v>
-      </c>
-      <c r="B2047" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="2049" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2049">
-        <v>621112</v>
-      </c>
-      <c r="B2049" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="2051" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2051">
-        <v>621210</v>
-      </c>
-      <c r="B2051" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="2053" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2053">
-        <v>621310</v>
-      </c>
-      <c r="B2053" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="2055" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2055">
-        <v>621320</v>
-      </c>
-      <c r="B2055" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="2057" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2057">
-        <v>621330</v>
-      </c>
-      <c r="B2057" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="2059" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2059">
-        <v>621340</v>
-      </c>
-      <c r="B2059" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="2061" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2061">
-        <v>621391</v>
-      </c>
-      <c r="B2061" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="2063" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2063">
-        <v>621399</v>
-      </c>
-      <c r="B2063" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="2065" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2065">
-        <v>621410</v>
-      </c>
-      <c r="B2065" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="2067" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2067">
-        <v>621420</v>
-      </c>
-      <c r="B2067" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="2069" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2069">
-        <v>621491</v>
-      </c>
-      <c r="B2069" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="2071" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2071">
-        <v>621492</v>
-      </c>
-      <c r="B2071" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="2073" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2073">
-        <v>621493</v>
-      </c>
-      <c r="B2073" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="2075" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2075">
-        <v>621498</v>
-      </c>
-      <c r="B2075" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="2077" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2077">
-        <v>621511</v>
-      </c>
-      <c r="B2077" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="2079" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2079">
-        <v>621512</v>
-      </c>
-      <c r="B2079" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="2081" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2081">
-        <v>621610</v>
-      </c>
-      <c r="B2081" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="2083" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2083">
-        <v>621910</v>
-      </c>
-      <c r="B2083" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="2085" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2085">
-        <v>621991</v>
-      </c>
-      <c r="B2085" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="2087" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2087">
-        <v>621999</v>
-      </c>
-      <c r="B2087" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="2089" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2089">
-        <v>622110</v>
-      </c>
-      <c r="B2089" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="2091" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2091">
-        <v>622210</v>
-      </c>
-      <c r="B2091" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="2093" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2093">
-        <v>622310</v>
-      </c>
-      <c r="B2093" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="2095" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2095">
-        <v>623110</v>
-      </c>
-      <c r="B2095" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="2097" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2097">
-        <v>623210</v>
-      </c>
-      <c r="B2097" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="2099" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2099">
-        <v>623220</v>
-      </c>
-      <c r="B2099" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="2101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2101">
-        <v>623311</v>
-      </c>
-      <c r="B2101" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="2103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2103">
-        <v>623312</v>
-      </c>
-      <c r="B2103" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="2105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2105">
-        <v>623990</v>
-      </c>
-      <c r="B2105" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="2107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2107">
-        <v>624110</v>
-      </c>
-      <c r="B2107" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="2109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2109">
-        <v>624120</v>
-      </c>
-      <c r="B2109" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="2111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2111">
-        <v>624190</v>
-      </c>
-      <c r="B2111" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="2113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2113">
-        <v>624210</v>
-      </c>
-      <c r="B2113" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="2115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2115">
-        <v>624221</v>
-      </c>
-      <c r="B2115" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="2117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2117">
-        <v>624229</v>
-      </c>
-      <c r="B2117" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="2119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2119">
-        <v>624230</v>
-      </c>
-      <c r="B2119" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="2121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2121">
-        <v>624310</v>
-      </c>
-      <c r="B2121" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="2123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2123">
-        <v>624410</v>
-      </c>
-      <c r="B2123" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="2125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2125">
-        <v>711110</v>
-      </c>
-      <c r="B2125" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="2127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2127">
-        <v>711120</v>
-      </c>
-      <c r="B2127" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="2129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2129">
-        <v>711130</v>
-      </c>
-      <c r="B2129" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="2131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2131">
-        <v>711190</v>
-      </c>
-      <c r="B2131" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="2133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2133">
-        <v>711211</v>
-      </c>
-      <c r="B2133" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="2135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2135">
-        <v>711212</v>
-      </c>
-      <c r="B2135" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="2137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2137">
-        <v>711219</v>
-      </c>
-      <c r="B2137" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="2139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2139">
-        <v>711310</v>
-      </c>
-      <c r="B2139" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="2141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2141">
-        <v>711320</v>
-      </c>
-      <c r="B2141" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="2143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2143">
-        <v>711410</v>
-      </c>
-      <c r="B2143" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="2145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2145">
-        <v>711510</v>
-      </c>
-      <c r="B2145" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="2147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2147">
-        <v>712110</v>
-      </c>
-      <c r="B2147" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="2149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2149">
-        <v>712120</v>
-      </c>
-      <c r="B2149" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="2151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2151">
-        <v>712130</v>
-      </c>
-      <c r="B2151" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="2153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2153">
-        <v>712190</v>
-      </c>
-      <c r="B2153" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="2155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2155">
-        <v>713110</v>
-      </c>
-      <c r="B2155" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="2157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2157">
-        <v>713120</v>
-      </c>
-      <c r="B2157" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="2159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2159">
-        <v>713210</v>
-      </c>
-      <c r="B2159" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="2161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2161">
-        <v>713290</v>
-      </c>
-      <c r="B2161" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="2163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2163">
-        <v>713910</v>
-      </c>
-      <c r="B2163" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="2165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2165">
-        <v>713920</v>
-      </c>
-      <c r="B2165" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="2167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2167">
-        <v>713930</v>
-      </c>
-      <c r="B2167" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="2169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2169">
-        <v>713940</v>
-      </c>
-      <c r="B2169" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="2171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2171">
-        <v>713950</v>
-      </c>
-      <c r="B2171" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="2173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2173">
-        <v>713990</v>
-      </c>
-      <c r="B2173" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="2175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2175">
-        <v>721110</v>
-      </c>
-      <c r="B2175" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="2177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2177">
-        <v>721120</v>
-      </c>
-      <c r="B2177" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="2179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2179">
-        <v>721191</v>
-      </c>
-      <c r="B2179" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="2181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2181">
-        <v>721199</v>
-      </c>
-      <c r="B2181" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="2183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2183">
-        <v>721211</v>
-      </c>
-      <c r="B2183" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="2185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2185">
-        <v>721214</v>
-      </c>
-      <c r="B2185" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="2187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2187">
-        <v>721310</v>
-      </c>
-      <c r="B2187" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="2189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2189">
-        <v>722110</v>
-      </c>
-      <c r="B2189" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="2191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2191">
-        <v>722211</v>
-      </c>
-      <c r="B2191" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="2193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2193">
-        <v>722212</v>
-      </c>
-      <c r="B2193" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="2195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2195">
-        <v>722213</v>
-      </c>
-      <c r="B2195" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="2197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2197">
-        <v>722310</v>
-      </c>
-      <c r="B2197" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="2199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2199">
-        <v>722320</v>
-      </c>
-      <c r="B2199" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="2201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2201">
-        <v>722330</v>
-      </c>
-      <c r="B2201" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="2203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2203">
-        <v>722410</v>
-      </c>
-      <c r="B2203" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="2205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2205">
-        <v>811111</v>
-      </c>
-      <c r="B2205" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="2207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2207">
-        <v>811112</v>
-      </c>
-      <c r="B2207" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="2209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2209">
-        <v>811113</v>
-      </c>
-      <c r="B2209" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="2211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2211">
-        <v>811118</v>
-      </c>
-      <c r="B2211" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="2213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2213">
-        <v>811121</v>
-      </c>
-      <c r="B2213" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="2215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2215">
-        <v>811122</v>
-      </c>
-      <c r="B2215" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="2217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2217">
-        <v>811191</v>
-      </c>
-      <c r="B2217" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="2219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2219">
-        <v>811192</v>
-      </c>
-      <c r="B2219" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="2221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2221">
-        <v>811198</v>
-      </c>
-      <c r="B2221" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="2223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2223">
-        <v>811211</v>
-      </c>
-      <c r="B2223" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="2225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2225">
-        <v>811212</v>
-      </c>
-      <c r="B2225" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="2227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2227">
-        <v>811213</v>
-      </c>
-      <c r="B2227" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="2229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2229">
-        <v>811219</v>
-      </c>
-      <c r="B2229" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="2231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2231">
-        <v>811310</v>
-      </c>
-      <c r="B2231" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="2233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2233">
-        <v>811411</v>
-      </c>
-      <c r="B2233" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="2235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2235">
-        <v>811412</v>
-      </c>
-      <c r="B2235" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="2237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2237">
-        <v>811420</v>
-      </c>
-      <c r="B2237" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="2239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2239">
-        <v>811430</v>
-      </c>
-      <c r="B2239" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="2241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2241">
-        <v>811490</v>
-      </c>
-      <c r="B2241" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="2243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2243">
-        <v>812111</v>
-      </c>
-      <c r="B2243" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="2245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2245">
-        <v>812112</v>
-      </c>
-      <c r="B2245" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="2247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2247">
-        <v>812113</v>
-      </c>
-      <c r="B2247" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="2249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2249">
-        <v>812191</v>
-      </c>
-      <c r="B2249" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="2251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2251">
-        <v>812199</v>
-      </c>
-      <c r="B2251" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="2253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2253">
-        <v>812210</v>
-      </c>
-      <c r="B2253" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="2255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2255">
-        <v>812220</v>
-      </c>
-      <c r="B2255" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="2257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2257">
-        <v>812310</v>
-      </c>
-      <c r="B2257" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="2259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2259">
-        <v>812320</v>
-      </c>
-      <c r="B2259" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="2261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2261">
-        <v>812331</v>
-      </c>
-      <c r="B2261" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="2263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2263">
-        <v>812332</v>
-      </c>
-      <c r="B2263" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="2265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2265">
-        <v>812910</v>
-      </c>
-      <c r="B2265" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="2267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2267">
-        <v>812921</v>
-      </c>
-      <c r="B2267" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="2269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2269">
-        <v>812922</v>
-      </c>
-      <c r="B2269" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="2271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2271">
-        <v>812930</v>
-      </c>
-      <c r="B2271" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="2273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2273">
-        <v>812990</v>
-      </c>
-      <c r="B2273" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="2275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2275">
-        <v>813110</v>
-      </c>
-      <c r="B2275" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="2277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2277">
-        <v>813211</v>
-      </c>
-      <c r="B2277" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="2279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2279">
-        <v>813212</v>
-      </c>
-      <c r="B2279" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="2281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2281">
-        <v>813219</v>
-      </c>
-      <c r="B2281" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="2283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2283">
-        <v>813311</v>
-      </c>
-      <c r="B2283" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="2285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2285">
-        <v>813312</v>
-      </c>
-      <c r="B2285" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="2287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2287">
-        <v>813319</v>
-      </c>
-      <c r="B2287" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="2289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2289">
-        <v>813410</v>
-      </c>
-      <c r="B2289" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="2291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2291">
-        <v>813910</v>
-      </c>
-      <c r="B2291" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="2293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2293">
-        <v>813920</v>
-      </c>
-      <c r="B2293" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="2295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2295">
-        <v>813930</v>
-      </c>
-      <c r="B2295" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="2297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2297">
-        <v>813940</v>
-      </c>
-      <c r="B2297" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="2299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2299">
-        <v>813990</v>
-      </c>
-      <c r="B2299" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="2301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2301">
-        <v>814110</v>
-      </c>
-      <c r="B2301" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="2303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2303">
-        <v>921110</v>
-      </c>
-      <c r="B2303" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="2305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2305">
-        <v>921120</v>
-      </c>
-      <c r="B2305" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="2307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2307">
-        <v>921130</v>
-      </c>
-      <c r="B2307" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="2309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2309">
-        <v>921140</v>
-      </c>
-      <c r="B2309" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="2311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2311">
-        <v>921150</v>
-      </c>
-      <c r="B2311" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="2313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2313">
-        <v>921190</v>
-      </c>
-      <c r="B2313" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="2315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2315">
-        <v>922110</v>
-      </c>
-      <c r="B2315" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="2317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2317">
-        <v>922120</v>
-      </c>
-      <c r="B2317" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="2319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2319">
-        <v>922130</v>
-      </c>
-      <c r="B2319" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="2321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2321">
-        <v>922140</v>
-      </c>
-      <c r="B2321" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="2323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2323">
-        <v>922150</v>
-      </c>
-      <c r="B2323" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="2325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2325">
-        <v>922160</v>
-      </c>
-      <c r="B2325" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="2327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2327">
-        <v>922190</v>
-      </c>
-      <c r="B2327" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="2329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2329">
-        <v>923110</v>
-      </c>
-      <c r="B2329" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="2331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2331">
-        <v>923120</v>
-      </c>
-      <c r="B2331" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="2333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2333">
-        <v>923130</v>
-      </c>
-      <c r="B2333" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="2335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2335">
-        <v>923140</v>
-      </c>
-      <c r="B2335" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="2337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2337">
-        <v>924110</v>
-      </c>
-      <c r="B2337" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="2339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2339">
-        <v>924120</v>
-      </c>
-      <c r="B2339" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="2341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2341">
-        <v>925110</v>
-      </c>
-      <c r="B2341" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="2343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2343">
-        <v>925120</v>
-      </c>
-      <c r="B2343" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="2345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2345">
-        <v>926110</v>
-      </c>
-      <c r="B2345" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="2347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2347">
-        <v>926120</v>
-      </c>
-      <c r="B2347" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="2349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2349">
-        <v>926130</v>
-      </c>
-      <c r="B2349" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="2351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2351">
-        <v>926140</v>
-      </c>
-      <c r="B2351" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="2353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2353">
-        <v>926150</v>
-      </c>
-      <c r="B2353" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="2355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2355">
-        <v>927110</v>
-      </c>
-      <c r="B2355" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="2357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2357">
-        <v>928110</v>
-      </c>
-      <c r="B2357" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="2359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2359">
-        <v>928120</v>
-      </c>
-      <c r="B2359" t="s">
-        <v>1181</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
